--- a/trunk/Source/translate/번역요청.xlsx
+++ b/trunk/Source/translate/번역요청.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="307">
   <si>
     <t>페이지 경로</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1674,6 +1674,24 @@
   <si>
     <t>상기기업의 구인정보에 틀림없음을 확인합니다.</t>
   </si>
+  <si>
+    <t>2011 중국취업박람회</t>
+  </si>
+  <si>
+    <t>명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名</t>
+  </si>
+  <si>
+    <t>숫자만 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1760,7 +1778,6 @@
     <font>
       <sz val="9"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1788,7 +1805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1854,6 +1871,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -2168,10 +2188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O399"/>
+  <dimension ref="A1:O403"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:B430"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2210,51 +2230,54 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>302</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
+        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
+        <f>A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
+        <f t="shared" ref="A5:A26" si="0">A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2264,105 +2287,111 @@
         <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -2372,71 +2401,75 @@
         <v>80</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -2446,3272 +2479,3388 @@
         <v>106</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19">
         <v>17</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19">
-        <v>14</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:5">
       <c r="A20">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
       <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
         <v>16</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:5">
       <c r="A23">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
       </c>
       <c r="C24">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
         <v>15</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>38</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>13</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27">
-        <v>19</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="33" customHeight="1">
+    <row r="28" spans="1:5">
       <c r="A28">
+        <f>A26+1</f>
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>40</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>41</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="33" customHeight="1">
       <c r="A29">
+        <f t="shared" ref="A29:A95" si="1">A28+1</f>
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>40</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>43</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>40</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="72" customHeight="1">
+        <v>45</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
       </c>
       <c r="C31">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>47</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="72" customHeight="1">
       <c r="A32">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
       </c>
       <c r="C32">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>50</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
       </c>
       <c r="C33">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>51</v>
+      </c>
+      <c r="O33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>40</v>
       </c>
       <c r="C34">
+        <v>45</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="E34" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
       </c>
       <c r="C35">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>54</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
       <c r="C36">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>56</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
       </c>
       <c r="C37">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
       </c>
       <c r="C38">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
       <c r="C39">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
       </c>
       <c r="C40">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
       <c r="C41">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="33">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>40</v>
       </c>
       <c r="C42">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="33">
       <c r="A43">
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>40</v>
       </c>
       <c r="C43">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>40</v>
       </c>
       <c r="C44">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>40</v>
       </c>
       <c r="C45">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>40</v>
       </c>
       <c r="C46">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>40</v>
       </c>
       <c r="C47">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>40</v>
       </c>
       <c r="C48">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>40</v>
       </c>
       <c r="C49">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>40</v>
       </c>
       <c r="C50">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>40</v>
       </c>
       <c r="C51">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>40</v>
       </c>
       <c r="C52">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>40</v>
       </c>
       <c r="C53">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>40</v>
       </c>
       <c r="C54">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>40</v>
       </c>
       <c r="C55">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>97</v>
+        <v>306</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>40</v>
       </c>
       <c r="C56">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>98</v>
+        <v>303</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>98</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>40</v>
       </c>
       <c r="C57">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>99</v>
+        <v>305</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
+        <f>A57+1</f>
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>40</v>
       </c>
       <c r="C58">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>40</v>
       </c>
       <c r="C59">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F59" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>40</v>
       </c>
       <c r="C60">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>40</v>
       </c>
       <c r="C61">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F61" t="s">
-        <v>105</v>
+        <v>99</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>40</v>
       </c>
       <c r="C62">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F62" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>40</v>
       </c>
       <c r="C63">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="F63" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>40</v>
       </c>
       <c r="C64">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F64" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>40</v>
       </c>
       <c r="C65">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>112</v>
+        <v>97</v>
+      </c>
+      <c r="F65" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>40</v>
       </c>
       <c r="C66">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="33">
+        <v>98</v>
+      </c>
+      <c r="F66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67">
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>40</v>
       </c>
       <c r="C67">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>114</v>
+        <v>99</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F67" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>40</v>
       </c>
       <c r="C68">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>116</v>
+        <v>100</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F68" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>40</v>
       </c>
       <c r="C69">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>40</v>
       </c>
       <c r="C70">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>110</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="33">
       <c r="A71">
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>40</v>
       </c>
       <c r="C71">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>122</v>
+        <v>113</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>40</v>
       </c>
       <c r="C72">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>124</v>
+        <v>115</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>40</v>
       </c>
       <c r="C73">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="33">
+        <v>117</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>40</v>
       </c>
       <c r="C74">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>128</v>
+        <v>119</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>40</v>
       </c>
       <c r="C75">
-        <v>371</v>
+        <v>291</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>40</v>
       </c>
       <c r="C76">
-        <v>377</v>
+        <v>301</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F76" t="s">
-        <v>130</v>
+        <v>123</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>40</v>
       </c>
       <c r="C77">
-        <v>385</v>
+        <v>306</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>125</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="33">
       <c r="A78">
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>40</v>
       </c>
       <c r="C78">
-        <v>390</v>
+        <v>312</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>40</v>
       </c>
       <c r="C79">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>40</v>
       </c>
       <c r="C80">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
+      </c>
+      <c r="F80" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>40</v>
       </c>
       <c r="C81">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="33">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>40</v>
       </c>
       <c r="C82">
-        <v>432</v>
+        <v>390</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="33">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83">
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>40</v>
       </c>
       <c r="C83">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F83" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="33">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84">
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>40</v>
       </c>
       <c r="C84">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>40</v>
       </c>
       <c r="C85">
-        <v>465</v>
+        <v>417</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="33">
       <c r="A86">
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>40</v>
       </c>
       <c r="C86">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="33">
       <c r="A87">
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>40</v>
       </c>
       <c r="C87">
-        <v>496</v>
+        <v>439</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F87" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="33">
       <c r="A88">
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>40</v>
       </c>
       <c r="C88">
-        <v>502</v>
+        <v>457</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>40</v>
       </c>
       <c r="C89">
-        <v>508</v>
+        <v>465</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>40</v>
       </c>
       <c r="C90">
-        <v>539</v>
+        <v>470</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F90" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>40</v>
       </c>
       <c r="C91">
-        <v>545</v>
+        <v>496</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
+      </c>
+      <c r="F91" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>40</v>
       </c>
       <c r="C92">
-        <v>551</v>
+        <v>502</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>40</v>
       </c>
       <c r="C93">
-        <v>557</v>
+        <v>508</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>40</v>
       </c>
       <c r="C94">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F94" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>40</v>
       </c>
       <c r="C95">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
+        <f t="shared" ref="A96:A159" si="2">A95+1</f>
         <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>40</v>
       </c>
       <c r="C96">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>40</v>
       </c>
       <c r="C97">
-        <v>584</v>
+        <v>557</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>40</v>
       </c>
       <c r="C98">
-        <v>591</v>
+        <v>563</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
+      </c>
+      <c r="F98" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>40</v>
       </c>
       <c r="C99">
-        <v>597</v>
+        <v>569</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>40</v>
       </c>
       <c r="C100">
-        <v>604</v>
+        <v>576</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>40</v>
       </c>
       <c r="C101">
-        <v>610</v>
+        <v>584</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>40</v>
       </c>
       <c r="C102">
-        <v>616</v>
+        <v>591</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>40</v>
       </c>
       <c r="C103">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>40</v>
       </c>
       <c r="C104">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
+        <f t="shared" si="2"/>
         <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>40</v>
       </c>
       <c r="C105">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>40</v>
       </c>
       <c r="C106">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F106" t="s">
-        <v>164</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107">
+        <v>622</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>105</v>
+        <f t="shared" si="2"/>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="C108">
-        <v>19</v>
+        <v>628</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E108" s="17" t="s">
-        <v>167</v>
+        <v>161</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>106</v>
+        <f t="shared" si="2"/>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="C109">
-        <v>25</v>
+        <v>634</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F109" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="33">
+        <v>162</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110">
-        <v>107</v>
+        <f t="shared" si="2"/>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="C110">
-        <v>33</v>
+        <v>640</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>44</v>
+        <v>163</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F110" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>108</v>
-      </c>
-      <c r="B111" t="s">
-        <v>165</v>
-      </c>
-      <c r="C111">
-        <v>39</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F111" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
+        <f>A110+1</f>
         <v>109</v>
       </c>
       <c r="B112" t="s">
         <v>165</v>
       </c>
       <c r="C112">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="66">
+        <v>166</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113">
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="B113" t="s">
         <v>165</v>
       </c>
       <c r="C113">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F113" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="33">
       <c r="A114">
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="B114" t="s">
         <v>165</v>
       </c>
       <c r="C114">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>43</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115">
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="B115" t="s">
         <v>165</v>
       </c>
       <c r="C115">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>45</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116">
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
       <c r="B116" t="s">
         <v>165</v>
       </c>
       <c r="C116">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>47</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="66">
       <c r="A117">
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="B117" t="s">
         <v>165</v>
       </c>
       <c r="C117">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>50</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118">
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="B118" t="s">
         <v>165</v>
       </c>
       <c r="C118">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119">
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
       <c r="B119" t="s">
         <v>165</v>
       </c>
       <c r="C119">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120">
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="B120" t="s">
         <v>165</v>
       </c>
       <c r="C120">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>54</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121">
+        <f t="shared" si="2"/>
         <v>118</v>
       </c>
       <c r="B121" t="s">
         <v>165</v>
       </c>
       <c r="C121">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122">
+        <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="B122" t="s">
         <v>165</v>
       </c>
       <c r="C122">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E122" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="33">
+        <v>59</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123">
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="B123" t="s">
         <v>165</v>
       </c>
       <c r="C123">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E123" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>61</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124">
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="B124" t="s">
         <v>165</v>
       </c>
       <c r="C124">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E124" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>63</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125">
+        <f t="shared" si="2"/>
         <v>122</v>
       </c>
       <c r="B125" t="s">
         <v>165</v>
       </c>
       <c r="C125">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E125" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126">
+        <f t="shared" si="2"/>
         <v>123</v>
       </c>
       <c r="B126" t="s">
         <v>165</v>
       </c>
       <c r="C126">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="33">
       <c r="A127">
+        <f t="shared" si="2"/>
         <v>124</v>
       </c>
       <c r="B127" t="s">
         <v>165</v>
       </c>
       <c r="C127">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128">
+        <f t="shared" si="2"/>
         <v>125</v>
       </c>
       <c r="B128" t="s">
         <v>165</v>
       </c>
       <c r="C128">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E128" s="18" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129">
+        <f t="shared" si="2"/>
         <v>126</v>
       </c>
       <c r="B129" t="s">
         <v>165</v>
       </c>
       <c r="C129">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="E129" s="18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130">
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="B130" t="s">
         <v>165</v>
       </c>
       <c r="C130">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
+      </c>
+      <c r="E130" s="18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131">
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="B131" t="s">
         <v>165</v>
       </c>
       <c r="C131">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
+      </c>
+      <c r="E131" s="18" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132">
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="B132" t="s">
         <v>165</v>
       </c>
       <c r="C132">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133">
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="B133" t="s">
         <v>165</v>
       </c>
       <c r="C133">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E133" s="18" t="s">
-        <v>92</v>
+        <v>80</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134">
-        <f>A133+1</f>
+        <f t="shared" si="2"/>
         <v>131</v>
       </c>
       <c r="B134" t="s">
         <v>165</v>
       </c>
       <c r="C134">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135">
-        <f t="shared" ref="A135:A195" si="0">A134+1</f>
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="B135" t="s">
         <v>165</v>
       </c>
       <c r="C135">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E135" s="18" t="s">
-        <v>95</v>
+        <v>84</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="B136" t="s">
         <v>165</v>
       </c>
       <c r="C136">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E136" s="18" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="B137" t="s">
         <v>165</v>
       </c>
       <c r="C137">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
+      </c>
+      <c r="E137" s="18" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="B138" t="s">
         <v>165</v>
       </c>
       <c r="C138">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="B139" t="s">
         <v>165</v>
       </c>
       <c r="C139">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
+      </c>
+      <c r="E139" s="18" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="B140" t="s">
         <v>165</v>
       </c>
       <c r="C140">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E140" s="18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="B141" t="s">
         <v>165</v>
       </c>
       <c r="C141">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="B142" t="s">
         <v>165</v>
       </c>
       <c r="C142">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E142" s="18" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="B143" t="s">
         <v>165</v>
       </c>
       <c r="C143">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="B144" t="s">
         <v>165</v>
       </c>
       <c r="C144">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
+      </c>
+      <c r="E144" s="18" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="B145" t="s">
         <v>165</v>
       </c>
       <c r="C145">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146">
-        <f>A145+1</f>
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="B146" t="s">
         <v>165</v>
       </c>
       <c r="C146">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E146" s="18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147">
-        <f>A146+1</f>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="B147" t="s">
         <v>165</v>
       </c>
       <c r="C147">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E147" s="18" t="s">
-        <v>112</v>
+        <v>98</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="B148" t="s">
         <v>165</v>
       </c>
       <c r="C148">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="33">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="B149" t="s">
         <v>165</v>
       </c>
       <c r="C149">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E149" s="18" t="s">
-        <v>114</v>
+        <v>100</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="B150" t="s">
         <v>165</v>
       </c>
       <c r="C150">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E150" s="15" t="s">
-        <v>116</v>
+        <v>91</v>
+      </c>
+      <c r="E150" s="18" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="B151" t="s">
         <v>165</v>
       </c>
       <c r="C151">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E151" s="16" t="s">
-        <v>118</v>
+        <v>109</v>
+      </c>
+      <c r="E151" s="18" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
       <c r="B152" t="s">
         <v>165</v>
       </c>
       <c r="C152">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E152" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>110</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="33">
       <c r="A153">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="B153" t="s">
         <v>165</v>
       </c>
       <c r="C153">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E153" s="16" t="s">
-        <v>122</v>
+        <v>113</v>
+      </c>
+      <c r="E153" s="18" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="B154" t="s">
         <v>165</v>
       </c>
       <c r="C154">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E154" s="16" t="s">
-        <v>124</v>
+        <v>115</v>
+      </c>
+      <c r="E154" s="15" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="B155" t="s">
         <v>165</v>
       </c>
       <c r="C155">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="33">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="B156" t="s">
         <v>165</v>
       </c>
       <c r="C156">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="B157" t="s">
         <v>165</v>
       </c>
       <c r="C157">
-        <v>343</v>
+        <v>278</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
+      </c>
+      <c r="E157" s="16" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="B158" t="s">
         <v>165</v>
       </c>
       <c r="C158">
-        <v>349</v>
+        <v>288</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
+      </c>
+      <c r="E158" s="16" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="B159" t="s">
         <v>165</v>
       </c>
       <c r="C159">
-        <v>357</v>
+        <v>293</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>125</v>
+      </c>
+      <c r="E159" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="33">
       <c r="A160">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A160:A223" si="3">A159+1</f>
         <v>157</v>
       </c>
       <c r="B160" t="s">
         <v>165</v>
       </c>
       <c r="C160">
-        <v>362</v>
+        <v>299</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>158</v>
       </c>
       <c r="B161" t="s">
         <v>165</v>
       </c>
       <c r="C161">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>159</v>
       </c>
       <c r="B162" t="s">
         <v>165</v>
       </c>
       <c r="C162">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="B163" t="s">
         <v>165</v>
       </c>
       <c r="C163">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="33">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>161</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164">
-        <v>404</v>
+        <v>362</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="33">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>162</v>
       </c>
       <c r="B165" t="s">
         <v>165</v>
       </c>
       <c r="C165">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="33">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>163</v>
       </c>
       <c r="B166" t="s">
         <v>165</v>
       </c>
       <c r="C166">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>164</v>
       </c>
       <c r="B167" t="s">
         <v>165</v>
       </c>
       <c r="C167">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="33">
       <c r="A168">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
       <c r="B168" t="s">
         <v>165</v>
       </c>
       <c r="C168">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="33">
       <c r="A169">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>166</v>
       </c>
       <c r="B169" t="s">
         <v>165</v>
       </c>
       <c r="C169">
-        <v>468</v>
+        <v>411</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="33">
       <c r="A170">
-        <f>A169+1</f>
+        <f t="shared" si="3"/>
         <v>167</v>
       </c>
       <c r="B170" t="s">
         <v>165</v>
       </c>
       <c r="C170">
-        <v>498</v>
+        <v>429</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171">
-        <f>A170+1</f>
+        <f t="shared" si="3"/>
         <v>168</v>
       </c>
       <c r="B171" t="s">
         <v>165</v>
       </c>
       <c r="C171">
-        <v>504</v>
+        <v>437</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172">
-        <f>A171+1</f>
+        <f t="shared" si="3"/>
         <v>169</v>
       </c>
       <c r="B172" t="s">
         <v>165</v>
       </c>
       <c r="C172">
-        <v>512</v>
+        <v>442</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="B173" t="s">
         <v>165</v>
       </c>
       <c r="C173">
-        <v>519</v>
+        <v>468</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>171</v>
       </c>
       <c r="B174" t="s">
         <v>165</v>
       </c>
       <c r="C174">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>172</v>
       </c>
       <c r="B175" t="s">
         <v>165</v>
       </c>
       <c r="C175">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>173</v>
       </c>
       <c r="B176" t="s">
         <v>165</v>
       </c>
       <c r="C176">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>174</v>
       </c>
       <c r="B177" t="s">
         <v>165</v>
       </c>
       <c r="C177">
-        <v>546</v>
+        <v>519</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178">
-        <f>A177+1</f>
+        <f t="shared" si="3"/>
         <v>175</v>
       </c>
       <c r="B178" t="s">
         <v>165</v>
       </c>
       <c r="C178">
-        <v>552</v>
+        <v>525</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>176</v>
       </c>
       <c r="B179" t="s">
         <v>165</v>
       </c>
       <c r="C179">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>177</v>
       </c>
       <c r="B180" t="s">
         <v>165</v>
       </c>
       <c r="C180">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>178</v>
       </c>
       <c r="B181" t="s">
         <v>165</v>
       </c>
       <c r="C181">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>179</v>
       </c>
       <c r="B182" t="s">
         <v>165</v>
       </c>
       <c r="C182">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="B183" t="s">
         <v>165</v>
       </c>
       <c r="C183">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <f t="shared" si="3"/>
+        <v>181</v>
+      </c>
+      <c r="B184" t="s">
+        <v>165</v>
+      </c>
+      <c r="C184">
+        <v>564</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185">
-        <f>A183+1</f>
-        <v>181</v>
+        <f t="shared" si="3"/>
+        <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C185">
-        <v>21</v>
+        <v>570</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186">
-        <f t="shared" si="0"/>
-        <v>182</v>
+        <f t="shared" si="3"/>
+        <v>183</v>
       </c>
       <c r="B186" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C186">
-        <v>30</v>
+        <v>576</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187">
-        <f t="shared" si="0"/>
-        <v>183</v>
+        <f t="shared" si="3"/>
+        <v>184</v>
       </c>
       <c r="B187" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C187">
-        <v>36</v>
+        <v>582</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188">
-        <f t="shared" si="0"/>
-        <v>184</v>
-      </c>
-      <c r="B188" t="s">
-        <v>175</v>
-      </c>
-      <c r="C188">
-        <v>44</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189">
-        <f t="shared" si="0"/>
+        <f>A187+1</f>
         <v>185</v>
       </c>
       <c r="B189" t="s">
         <v>175</v>
       </c>
       <c r="C189">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>186</v>
       </c>
       <c r="B190" t="s">
         <v>175</v>
       </c>
       <c r="C190">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>187</v>
       </c>
       <c r="B191" t="s">
         <v>175</v>
       </c>
       <c r="C191">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>188</v>
       </c>
       <c r="B192" t="s">
         <v>175</v>
       </c>
       <c r="C192">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>189</v>
       </c>
       <c r="B193" t="s">
         <v>175</v>
       </c>
       <c r="C193">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="B194" t="s">
         <v>175</v>
       </c>
       <c r="C194">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F194" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>191</v>
       </c>
       <c r="B195" t="s">
         <v>175</v>
       </c>
       <c r="C195">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196">
-        <f t="shared" ref="A196:A210" si="1">A195+1</f>
+        <f t="shared" si="3"/>
         <v>192</v>
       </c>
       <c r="B196" t="s">
         <v>175</v>
       </c>
       <c r="C196">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>193</v>
       </c>
       <c r="B197" t="s">
         <v>175</v>
       </c>
       <c r="C197">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F197" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>194</v>
       </c>
       <c r="B198" t="s">
         <v>175</v>
       </c>
       <c r="C198">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>189</v>
+        <v>89</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>189</v>
+        <v>89</v>
+      </c>
+      <c r="F198" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
       <c r="B199" t="s">
         <v>175</v>
       </c>
       <c r="C199">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
       <c r="B200" t="s">
         <v>175</v>
       </c>
       <c r="C200">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>197</v>
       </c>
       <c r="B201" t="s">
         <v>175</v>
       </c>
       <c r="C201">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
+      </c>
+      <c r="F201" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>198</v>
       </c>
       <c r="B202" t="s">
         <v>175</v>
       </c>
       <c r="C202">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>199</v>
       </c>
       <c r="B203" t="s">
         <v>175</v>
       </c>
       <c r="C203">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>183</v>
@@ -5719,1517 +5868,1517 @@
       <c r="E203" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F203" t="s">
-        <v>193</v>
-      </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="B204" t="s">
         <v>175</v>
       </c>
       <c r="C204">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>201</v>
       </c>
       <c r="B205" t="s">
         <v>175</v>
       </c>
       <c r="C205">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>202</v>
       </c>
       <c r="B206" t="s">
         <v>175</v>
       </c>
       <c r="C206">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>203</v>
       </c>
       <c r="B207" t="s">
         <v>175</v>
       </c>
       <c r="C207">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>197</v>
+        <v>183</v>
+      </c>
+      <c r="F207" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>204</v>
       </c>
       <c r="B208" t="s">
         <v>175</v>
       </c>
       <c r="C208">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F208" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>205</v>
       </c>
       <c r="B209" t="s">
         <v>175</v>
       </c>
       <c r="C209">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>206</v>
       </c>
       <c r="B210" t="s">
         <v>175</v>
       </c>
       <c r="C210">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211">
-        <f t="shared" ref="A211:A233" si="2">A210+1</f>
+        <f t="shared" si="3"/>
         <v>207</v>
       </c>
       <c r="B211" t="s">
         <v>175</v>
       </c>
       <c r="C211">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>208</v>
       </c>
       <c r="B212" t="s">
         <v>175</v>
       </c>
       <c r="C212">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+        <v>183</v>
+      </c>
+      <c r="F212" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>209</v>
       </c>
       <c r="B213" t="s">
         <v>175</v>
       </c>
       <c r="C213">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="B214" t="s">
         <v>175</v>
       </c>
       <c r="C214">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>211</v>
       </c>
       <c r="B215" t="s">
         <v>175</v>
       </c>
       <c r="C215">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>212</v>
       </c>
       <c r="B216" t="s">
         <v>175</v>
       </c>
       <c r="C216">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>213</v>
       </c>
       <c r="B217" t="s">
         <v>175</v>
       </c>
       <c r="C217">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>214</v>
       </c>
       <c r="B218" t="s">
         <v>175</v>
       </c>
       <c r="C218">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>215</v>
       </c>
       <c r="B219" t="s">
         <v>175</v>
       </c>
       <c r="C219">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>216</v>
       </c>
       <c r="B220" t="s">
         <v>175</v>
       </c>
       <c r="C220">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>217</v>
       </c>
       <c r="B221" t="s">
         <v>175</v>
       </c>
       <c r="C221">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>218</v>
       </c>
       <c r="B222" t="s">
         <v>175</v>
       </c>
       <c r="C222">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>219</v>
       </c>
       <c r="B223" t="s">
         <v>175</v>
       </c>
       <c r="C223">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A224:A287" si="4">A223+1</f>
         <v>220</v>
       </c>
       <c r="B224" t="s">
         <v>175</v>
       </c>
       <c r="C224">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>221</v>
       </c>
       <c r="B225" t="s">
         <v>175</v>
       </c>
       <c r="C225">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>222</v>
       </c>
       <c r="B226" t="s">
         <v>175</v>
       </c>
       <c r="C226">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>223</v>
       </c>
       <c r="B227" t="s">
         <v>175</v>
       </c>
       <c r="C227">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>224</v>
       </c>
       <c r="B228" t="s">
         <v>175</v>
       </c>
       <c r="C228">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>225</v>
       </c>
       <c r="B229" t="s">
         <v>175</v>
       </c>
       <c r="C229">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>226</v>
       </c>
       <c r="B230" t="s">
         <v>175</v>
       </c>
       <c r="C230">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>227</v>
       </c>
       <c r="B231" t="s">
         <v>175</v>
       </c>
       <c r="C231">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>228</v>
       </c>
       <c r="B232" t="s">
         <v>175</v>
       </c>
       <c r="C232">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>229</v>
       </c>
       <c r="B233" t="s">
         <v>175</v>
       </c>
       <c r="C233">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234">
-        <f t="shared" ref="A234:A275" si="3">A233+1</f>
+        <f t="shared" si="4"/>
         <v>230</v>
       </c>
       <c r="B234" t="s">
         <v>175</v>
       </c>
       <c r="C234">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>231</v>
       </c>
       <c r="B235" t="s">
         <v>175</v>
       </c>
       <c r="C235">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>232</v>
       </c>
       <c r="B236" t="s">
         <v>175</v>
       </c>
       <c r="C236">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>233</v>
       </c>
       <c r="B237" t="s">
         <v>175</v>
       </c>
       <c r="C237">
-        <v>467</v>
+        <v>437</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>234</v>
       </c>
       <c r="B238" t="s">
         <v>175</v>
       </c>
       <c r="C238">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>235</v>
       </c>
       <c r="B239" t="s">
         <v>175</v>
       </c>
       <c r="C239">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>236</v>
       </c>
       <c r="B240" t="s">
         <v>175</v>
       </c>
       <c r="C240">
-        <v>488</v>
+        <v>457</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>237</v>
       </c>
       <c r="B241" t="s">
         <v>175</v>
       </c>
       <c r="C241">
-        <v>502</v>
+        <v>467</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>238</v>
       </c>
       <c r="B242" t="s">
         <v>175</v>
       </c>
       <c r="C242">
-        <v>520</v>
+        <v>474</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>239</v>
       </c>
       <c r="B243" t="s">
         <v>175</v>
       </c>
       <c r="C243">
-        <v>531</v>
+        <v>481</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="B244" t="s">
         <v>175</v>
       </c>
       <c r="C244">
-        <v>540</v>
+        <v>488</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>241</v>
       </c>
       <c r="B245" t="s">
         <v>175</v>
       </c>
       <c r="C245">
-        <v>565</v>
+        <v>502</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>242</v>
       </c>
       <c r="B246" t="s">
         <v>175</v>
       </c>
       <c r="C246">
-        <v>577</v>
+        <v>520</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>243</v>
       </c>
       <c r="B247" t="s">
         <v>175</v>
       </c>
       <c r="C247">
-        <v>596</v>
+        <v>531</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>244</v>
       </c>
       <c r="B248" t="s">
         <v>175</v>
       </c>
       <c r="C248">
-        <v>605</v>
+        <v>540</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>245</v>
       </c>
       <c r="B249" t="s">
         <v>175</v>
       </c>
       <c r="C249">
-        <v>612</v>
+        <v>565</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>89</v>
+        <v>220</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F249" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>246</v>
       </c>
       <c r="B250" t="s">
         <v>175</v>
       </c>
       <c r="C250">
-        <v>653</v>
+        <v>577</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>247</v>
       </c>
       <c r="B251" t="s">
         <v>175</v>
       </c>
       <c r="C251">
-        <v>662</v>
+        <v>596</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>248</v>
       </c>
       <c r="B252" t="s">
         <v>175</v>
       </c>
       <c r="C252">
-        <v>669</v>
+        <v>605</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>249</v>
       </c>
       <c r="B253" t="s">
         <v>175</v>
       </c>
       <c r="C253">
-        <v>680</v>
+        <v>612</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>227</v>
+        <v>89</v>
+      </c>
+      <c r="F253" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="B254" t="s">
         <v>175</v>
       </c>
       <c r="C254">
-        <v>686</v>
+        <v>653</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>251</v>
       </c>
       <c r="B255" t="s">
         <v>175</v>
       </c>
       <c r="C255">
-        <v>692</v>
+        <v>662</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>252</v>
       </c>
       <c r="B256" t="s">
         <v>175</v>
       </c>
       <c r="C256">
-        <v>699</v>
+        <v>669</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>253</v>
       </c>
       <c r="B257" t="s">
         <v>175</v>
       </c>
       <c r="C257">
-        <v>706</v>
+        <v>680</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>254</v>
       </c>
       <c r="B258" t="s">
         <v>175</v>
       </c>
       <c r="C258">
-        <v>713</v>
+        <v>686</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>84</v>
+        <v>228</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>84</v>
+        <v>228</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>255</v>
       </c>
       <c r="B259" t="s">
         <v>175</v>
       </c>
       <c r="C259">
-        <v>724</v>
+        <v>692</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>256</v>
       </c>
       <c r="B260" t="s">
         <v>175</v>
       </c>
       <c r="C260">
-        <v>744</v>
+        <v>699</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F260" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>257</v>
       </c>
       <c r="B261" t="s">
         <v>175</v>
       </c>
       <c r="C261">
-        <v>768</v>
+        <v>706</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>258</v>
       </c>
       <c r="B262" t="s">
         <v>175</v>
       </c>
       <c r="C262">
-        <v>755</v>
+        <v>713</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>235</v>
+        <v>84</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F262" t="s">
-        <v>236</v>
+        <v>84</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>259</v>
       </c>
       <c r="B263" t="s">
         <v>175</v>
       </c>
       <c r="C263">
-        <v>782</v>
+        <v>724</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F263" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="B264" t="s">
         <v>175</v>
       </c>
       <c r="C264">
-        <v>795</v>
+        <v>744</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
+      </c>
+      <c r="F264" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>261</v>
       </c>
       <c r="B265" t="s">
         <v>175</v>
       </c>
       <c r="C265">
-        <v>813</v>
+        <v>768</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" ht="33">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>262</v>
       </c>
       <c r="B266" t="s">
         <v>175</v>
       </c>
       <c r="C266">
-        <v>869</v>
+        <v>755</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
+      </c>
+      <c r="F266" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>263</v>
       </c>
       <c r="B267" t="s">
         <v>175</v>
       </c>
       <c r="C267">
-        <v>1135</v>
+        <v>782</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
+      </c>
+      <c r="F267" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>264</v>
       </c>
       <c r="B268" t="s">
         <v>175</v>
       </c>
       <c r="C268">
-        <v>1136</v>
+        <v>795</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>265</v>
       </c>
       <c r="B269" t="s">
         <v>175</v>
       </c>
       <c r="C269">
-        <v>1137</v>
+        <v>813</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="33">
       <c r="A270">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>266</v>
       </c>
       <c r="B270" t="s">
         <v>175</v>
       </c>
       <c r="C270">
-        <v>1138</v>
+        <v>869</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>267</v>
       </c>
       <c r="B271" t="s">
         <v>175</v>
       </c>
       <c r="C271">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>268</v>
       </c>
       <c r="B272" t="s">
         <v>175</v>
       </c>
       <c r="C272">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>269</v>
       </c>
       <c r="B273" t="s">
         <v>175</v>
       </c>
       <c r="C273">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="B274" t="s">
         <v>175</v>
       </c>
       <c r="C274">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>271</v>
       </c>
       <c r="B275" t="s">
         <v>175</v>
       </c>
       <c r="C275">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276">
+        <f t="shared" si="4"/>
+        <v>272</v>
+      </c>
+      <c r="B276" t="s">
+        <v>175</v>
+      </c>
+      <c r="C276">
+        <v>1141</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277">
-        <f>A275+1</f>
-        <v>272</v>
+        <f t="shared" si="4"/>
+        <v>273</v>
       </c>
       <c r="B277" t="s">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="C277">
-        <v>17</v>
+        <v>1142</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278">
-        <f t="shared" ref="A278:A279" si="4">A277+1</f>
-        <v>273</v>
+        <f t="shared" si="4"/>
+        <v>274</v>
       </c>
       <c r="B278" t="s">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="C278">
-        <v>18</v>
+        <v>1143</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>174</v>
+        <v>249</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>174</v>
+        <v>249</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279">
         <f t="shared" si="4"/>
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B279" t="s">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="C279">
-        <v>78</v>
+        <v>1144</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281">
         <f>A279+1</f>
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B281" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C281">
         <v>17</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>57</v>
+        <v>252</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>57</v>
+        <v>252</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282">
-        <f>A281+1</f>
-        <v>276</v>
+        <f t="shared" si="4"/>
+        <v>277</v>
       </c>
       <c r="B282" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C282">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283">
-        <f t="shared" ref="A283:A305" si="5">A282+1</f>
-        <v>277</v>
+        <f t="shared" si="4"/>
+        <v>278</v>
       </c>
       <c r="B283" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C283">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
-      <c r="A284">
-        <f t="shared" si="5"/>
-        <v>278</v>
-      </c>
-      <c r="B284" t="s">
-        <v>254</v>
-      </c>
-      <c r="C284">
-        <v>30</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285">
-        <f t="shared" si="5"/>
+        <f>A283+1</f>
         <v>279</v>
       </c>
       <c r="B285" t="s">
         <v>254</v>
       </c>
       <c r="C285">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>257</v>
+        <v>57</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>257</v>
+        <v>57</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
       <c r="B286" t="s">
         <v>254</v>
       </c>
       <c r="C286">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>281</v>
       </c>
       <c r="B287" t="s">
         <v>254</v>
       </c>
       <c r="C287">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A288:A351" si="5">A287+1</f>
         <v>282</v>
       </c>
       <c r="B288" t="s">
         <v>254</v>
       </c>
       <c r="C288">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -7241,13 +7390,13 @@
         <v>254</v>
       </c>
       <c r="C289">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -7259,16 +7408,13 @@
         <v>254</v>
       </c>
       <c r="C290">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>260</v>
+        <v>67</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F290" t="s">
-        <v>261</v>
+        <v>67</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -7280,103 +7426,106 @@
         <v>254</v>
       </c>
       <c r="C291">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292">
+        <f t="shared" si="5"/>
+        <v>286</v>
+      </c>
+      <c r="B292" t="s">
+        <v>254</v>
+      </c>
+      <c r="C292">
+        <v>65</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293">
-        <f>A291+1</f>
-        <v>286</v>
+        <f t="shared" si="5"/>
+        <v>287</v>
       </c>
       <c r="B293" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C293">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294">
         <f t="shared" si="5"/>
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B294" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C294">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>59</v>
+        <v>260</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>59</v>
+        <v>260</v>
+      </c>
+      <c r="F294" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295">
         <f t="shared" si="5"/>
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B295" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C295">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6">
-      <c r="A296">
-        <f t="shared" si="5"/>
-        <v>289</v>
-      </c>
-      <c r="B296" t="s">
-        <v>263</v>
-      </c>
-      <c r="C296">
-        <v>30</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297">
-        <f t="shared" si="5"/>
+        <f>A295+1</f>
         <v>290</v>
       </c>
       <c r="B297" t="s">
         <v>263</v>
       </c>
       <c r="C297">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>257</v>
+        <v>57</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>257</v>
+        <v>57</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -7388,13 +7537,13 @@
         <v>263</v>
       </c>
       <c r="C298">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -7406,16 +7555,16 @@
         <v>263</v>
       </c>
       <c r="C299">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>67</v>
+        <v>255</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" ht="33">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
       <c r="A300">
         <f t="shared" si="5"/>
         <v>293</v>
@@ -7424,13 +7573,13 @@
         <v>263</v>
       </c>
       <c r="C300">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -7442,13 +7591,13 @@
         <v>263</v>
       </c>
       <c r="C301">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -7460,13 +7609,13 @@
         <v>263</v>
       </c>
       <c r="C302">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -7478,16 +7627,16 @@
         <v>263</v>
       </c>
       <c r="C303">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="33">
       <c r="A304">
         <f t="shared" si="5"/>
         <v>297</v>
@@ -7496,13 +7645,13 @@
         <v>263</v>
       </c>
       <c r="C304">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -7514,1530 +7663,1602 @@
         <v>263</v>
       </c>
       <c r="C305">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306">
+        <f t="shared" si="5"/>
+        <v>299</v>
+      </c>
+      <c r="B306" t="s">
+        <v>263</v>
+      </c>
+      <c r="C306">
+        <v>77</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307">
-        <f>A305+1</f>
-        <v>299</v>
+        <f t="shared" si="5"/>
+        <v>300</v>
       </c>
       <c r="B307" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C307">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>266</v>
+        <v>152</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>266</v>
+        <v>152</v>
       </c>
     </row>
     <row r="308" spans="1:5">
       <c r="A308">
-        <f>A307+1</f>
-        <v>300</v>
+        <f t="shared" si="5"/>
+        <v>301</v>
       </c>
       <c r="B308" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C308">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309">
-        <f t="shared" ref="A309:A347" si="6">A308+1</f>
-        <v>301</v>
+        <f t="shared" si="5"/>
+        <v>302</v>
       </c>
       <c r="B309" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C309">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>57</v>
+        <v>262</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
-      <c r="A310">
-        <f t="shared" si="6"/>
-        <v>302</v>
-      </c>
-      <c r="B310" t="s">
-        <v>265</v>
-      </c>
-      <c r="C310">
-        <v>27</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>59</v>
+        <v>262</v>
       </c>
     </row>
     <row r="311" spans="1:5">
       <c r="A311">
-        <f t="shared" si="6"/>
+        <f>A309+1</f>
         <v>303</v>
       </c>
       <c r="B311" t="s">
         <v>265</v>
       </c>
       <c r="C311">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>304</v>
       </c>
       <c r="B312" t="s">
         <v>265</v>
       </c>
       <c r="C312">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>305</v>
       </c>
       <c r="B313" t="s">
         <v>265</v>
       </c>
       <c r="C313">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>306</v>
       </c>
       <c r="B314" t="s">
         <v>265</v>
       </c>
       <c r="C314">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>149</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315">
+        <f t="shared" si="5"/>
+        <v>307</v>
+      </c>
+      <c r="B315" t="s">
+        <v>265</v>
+      </c>
+      <c r="C315">
+        <v>32</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316">
-        <f>A314+1</f>
-        <v>307</v>
+        <f t="shared" si="5"/>
+        <v>308</v>
       </c>
       <c r="B316" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C316">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="317" spans="1:5">
       <c r="A317">
-        <f t="shared" si="6"/>
-        <v>308</v>
+        <f t="shared" si="5"/>
+        <v>309</v>
       </c>
       <c r="B317" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C317">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>267</v>
+        <v>147</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>267</v>
+        <v>147</v>
       </c>
     </row>
     <row r="318" spans="1:5">
       <c r="A318">
-        <f t="shared" si="6"/>
-        <v>309</v>
+        <f t="shared" si="5"/>
+        <v>310</v>
       </c>
       <c r="B318" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C318">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
-      <c r="A319">
-        <f t="shared" si="6"/>
-        <v>310</v>
-      </c>
-      <c r="B319" t="s">
-        <v>270</v>
-      </c>
-      <c r="C319">
-        <v>27</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320">
-        <f t="shared" si="6"/>
+        <f>A318+1</f>
         <v>311</v>
       </c>
       <c r="B320" t="s">
         <v>270</v>
       </c>
       <c r="C320">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>312</v>
       </c>
       <c r="B321" t="s">
         <v>270</v>
       </c>
       <c r="C321">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>313</v>
       </c>
       <c r="B322" t="s">
         <v>270</v>
       </c>
       <c r="C322">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
     </row>
     <row r="323" spans="1:6">
       <c r="A323">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>314</v>
       </c>
       <c r="B323" t="s">
         <v>270</v>
       </c>
       <c r="C323">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>149</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324">
+        <f t="shared" si="5"/>
+        <v>315</v>
+      </c>
+      <c r="B324" t="s">
+        <v>270</v>
+      </c>
+      <c r="C324">
+        <v>32</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325">
-        <f>A323+1</f>
-        <v>315</v>
+        <f t="shared" si="5"/>
+        <v>316</v>
       </c>
       <c r="B325" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C325">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F325" t="s">
-        <v>272</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326">
+        <f t="shared" si="5"/>
+        <v>317</v>
+      </c>
+      <c r="B326" t="s">
+        <v>270</v>
+      </c>
+      <c r="C326">
+        <v>50</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327">
-        <f>A325+1</f>
-        <v>316</v>
+        <f t="shared" si="5"/>
+        <v>318</v>
       </c>
       <c r="B327" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C327">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>274</v>
+        <v>149</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F327" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6">
-      <c r="A328">
-        <f t="shared" si="6"/>
-        <v>317</v>
-      </c>
-      <c r="B328" t="s">
-        <v>273</v>
-      </c>
-      <c r="C328">
-        <v>13</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>276</v>
+        <v>149</v>
       </c>
     </row>
     <row r="329" spans="1:6">
       <c r="A329">
-        <f t="shared" si="6"/>
-        <v>318</v>
+        <f>A327+1</f>
+        <v>319</v>
       </c>
       <c r="B329" t="s">
+        <v>271</v>
+      </c>
+      <c r="C329">
+        <v>30</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F329" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331">
+        <f>A329+1</f>
+        <v>320</v>
+      </c>
+      <c r="B331" t="s">
         <v>273</v>
       </c>
-      <c r="C329">
-        <v>14</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E329" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6">
-      <c r="A330">
-        <f t="shared" si="6"/>
-        <v>319</v>
-      </c>
-      <c r="B330" t="s">
-        <v>273</v>
-      </c>
-      <c r="C330">
-        <v>15</v>
-      </c>
-      <c r="D330" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>278</v>
+      <c r="C331">
+        <v>12</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F331" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332">
-        <f>A330+1</f>
-        <v>320</v>
+        <f t="shared" si="5"/>
+        <v>321</v>
       </c>
       <c r="B332" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C332">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333">
-        <f t="shared" si="6"/>
-        <v>321</v>
+        <f t="shared" si="5"/>
+        <v>322</v>
       </c>
       <c r="B333" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C333">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334">
-        <f t="shared" si="6"/>
-        <v>322</v>
+        <f t="shared" si="5"/>
+        <v>323</v>
       </c>
       <c r="B334" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C334">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6">
-      <c r="A335">
-        <f t="shared" si="6"/>
-        <v>323</v>
-      </c>
-      <c r="B335" t="s">
-        <v>279</v>
-      </c>
-      <c r="C335">
-        <v>42</v>
-      </c>
-      <c r="D335" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E335" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="336" spans="1:6">
       <c r="A336">
-        <f t="shared" si="6"/>
+        <f>A334+1</f>
         <v>324</v>
       </c>
       <c r="B336" t="s">
         <v>279</v>
       </c>
       <c r="C336">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="337" spans="1:5">
       <c r="A337">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>325</v>
       </c>
       <c r="B337" t="s">
         <v>279</v>
       </c>
       <c r="C337">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338">
+        <f t="shared" si="5"/>
+        <v>326</v>
+      </c>
+      <c r="B338" t="s">
+        <v>279</v>
+      </c>
+      <c r="C338">
+        <v>33</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="339" spans="1:5">
       <c r="A339">
-        <f>A337+1</f>
-        <v>326</v>
+        <f t="shared" si="5"/>
+        <v>327</v>
       </c>
       <c r="B339" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C339">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="340" spans="1:5">
       <c r="A340">
-        <f t="shared" si="6"/>
-        <v>327</v>
+        <f t="shared" si="5"/>
+        <v>328</v>
       </c>
       <c r="B340" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C340">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341">
-        <f t="shared" si="6"/>
-        <v>328</v>
+        <f t="shared" si="5"/>
+        <v>329</v>
       </c>
       <c r="B341" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C341">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
-      <c r="A342">
-        <f t="shared" si="6"/>
-        <v>329</v>
-      </c>
-      <c r="B342" t="s">
-        <v>284</v>
-      </c>
-      <c r="C342">
-        <v>42</v>
-      </c>
-      <c r="D342" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E342" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="343" spans="1:5">
       <c r="A343">
-        <f t="shared" si="6"/>
+        <f>A341+1</f>
         <v>330</v>
       </c>
       <c r="B343" t="s">
         <v>284</v>
       </c>
       <c r="C343">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="344" spans="1:5">
       <c r="A344">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>331</v>
       </c>
       <c r="B344" t="s">
         <v>284</v>
       </c>
       <c r="C344">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345">
+        <f t="shared" si="5"/>
+        <v>332</v>
+      </c>
+      <c r="B345" t="s">
+        <v>284</v>
+      </c>
+      <c r="C345">
+        <v>33</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="346" spans="1:5">
       <c r="A346">
-        <f>A344+1</f>
-        <v>332</v>
+        <f t="shared" si="5"/>
+        <v>333</v>
       </c>
       <c r="B346" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C346">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="347" spans="1:5">
       <c r="A347">
-        <f t="shared" si="6"/>
-        <v>333</v>
+        <f t="shared" si="5"/>
+        <v>334</v>
       </c>
       <c r="B347" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C347">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="A348">
-        <f t="shared" ref="A348:A398" si="7">A347+1</f>
-        <v>334</v>
+        <f t="shared" si="5"/>
+        <v>335</v>
       </c>
       <c r="B348" t="s">
+        <v>284</v>
+      </c>
+      <c r="C348">
+        <v>123</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350">
+        <f>A348+1</f>
+        <v>336</v>
+      </c>
+      <c r="B350" t="s">
         <v>285</v>
       </c>
-      <c r="C348">
-        <v>15</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E348" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
-      <c r="A349">
-        <f t="shared" si="7"/>
-        <v>335</v>
-      </c>
-      <c r="B349" t="s">
-        <v>285</v>
-      </c>
-      <c r="C349">
-        <v>16</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E349" s="1" t="s">
-        <v>278</v>
+      <c r="C350">
+        <v>13</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="A351">
-        <f>A349+1</f>
-        <v>336</v>
+        <f t="shared" si="5"/>
+        <v>337</v>
       </c>
       <c r="B351" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C351">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="352" spans="1:5">
       <c r="A352">
-        <f t="shared" si="7"/>
-        <v>337</v>
+        <f t="shared" ref="A352:A403" si="6">A351+1</f>
+        <v>338</v>
       </c>
       <c r="B352" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C352">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="A353">
-        <f t="shared" si="7"/>
-        <v>338</v>
+        <f t="shared" si="6"/>
+        <v>339</v>
       </c>
       <c r="B353" t="s">
+        <v>285</v>
+      </c>
+      <c r="C353">
+        <v>16</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355">
+        <f>A353+1</f>
+        <v>340</v>
+      </c>
+      <c r="B355" t="s">
         <v>286</v>
       </c>
-      <c r="C353">
-        <v>14</v>
-      </c>
-      <c r="D353" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
-      <c r="A354">
-        <f t="shared" si="7"/>
-        <v>339</v>
-      </c>
-      <c r="B354" t="s">
-        <v>286</v>
-      </c>
-      <c r="C354">
-        <v>15</v>
-      </c>
-      <c r="D354" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E354" s="1" t="s">
-        <v>278</v>
+      <c r="C355">
+        <v>12</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356">
-        <f>A354+1</f>
-        <v>340</v>
+        <f t="shared" si="6"/>
+        <v>341</v>
       </c>
       <c r="B356" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C356">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="A357">
-        <f t="shared" si="7"/>
-        <v>341</v>
+        <f t="shared" si="6"/>
+        <v>342</v>
       </c>
       <c r="B357" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C357">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358">
-        <f t="shared" si="7"/>
-        <v>342</v>
+        <f t="shared" si="6"/>
+        <v>343</v>
       </c>
       <c r="B358" t="s">
+        <v>286</v>
+      </c>
+      <c r="C358">
+        <v>15</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360">
+        <f>A358+1</f>
+        <v>344</v>
+      </c>
+      <c r="B360" t="s">
         <v>287</v>
       </c>
-      <c r="C358">
-        <v>55</v>
-      </c>
-      <c r="D358" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E358" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
-      <c r="A359">
-        <f t="shared" si="7"/>
-        <v>343</v>
-      </c>
-      <c r="B359" t="s">
-        <v>287</v>
-      </c>
-      <c r="C359">
-        <v>70</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E359" s="1" t="s">
-        <v>290</v>
+      <c r="C360">
+        <v>26</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361">
-        <f>A359+1</f>
-        <v>344</v>
+        <f t="shared" si="6"/>
+        <v>345</v>
       </c>
       <c r="B361" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C361">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E361" s="20" t="s">
-        <v>46</v>
+        <v>289</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362">
-        <f t="shared" si="7"/>
-        <v>345</v>
+        <f t="shared" si="6"/>
+        <v>346</v>
       </c>
       <c r="B362" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C362">
-        <v>56</v>
-      </c>
-      <c r="D362" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="E362" s="21" t="s">
-        <v>167</v>
+        <v>55</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="363" spans="1:5">
       <c r="A363">
-        <f t="shared" si="7"/>
-        <v>346</v>
+        <f t="shared" si="6"/>
+        <v>347</v>
       </c>
       <c r="B363" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C363">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E363" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
-      <c r="A364">
-        <f t="shared" si="7"/>
-        <v>347</v>
-      </c>
-      <c r="B364" t="s">
-        <v>291</v>
-      </c>
-      <c r="C364">
-        <v>64</v>
-      </c>
-      <c r="D364" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E364" s="23" t="s">
-        <v>76</v>
+        <v>290</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365">
-        <f t="shared" si="7"/>
+        <f>A363+1</f>
         <v>348</v>
       </c>
       <c r="B365" t="s">
         <v>291</v>
       </c>
       <c r="C365">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E365" s="24" t="s">
-        <v>78</v>
+        <v>45</v>
+      </c>
+      <c r="E365" s="20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="366" spans="1:5">
       <c r="A366">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>349</v>
       </c>
       <c r="B366" t="s">
         <v>291</v>
       </c>
       <c r="C366">
-        <v>70</v>
-      </c>
-      <c r="D366" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E366" s="25" t="s">
-        <v>124</v>
+        <v>56</v>
+      </c>
+      <c r="D366" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="E366" s="21" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="367" spans="1:5">
       <c r="A367">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="B367" t="s">
         <v>291</v>
       </c>
       <c r="C367">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E367" s="1" t="s">
-        <v>294</v>
+        <v>71</v>
+      </c>
+      <c r="E367" s="22" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>351</v>
       </c>
       <c r="B368" t="s">
         <v>291</v>
       </c>
       <c r="C368">
+        <v>64</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E368" s="23" t="s">
         <v>76</v>
-      </c>
-      <c r="D368" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E368" s="26" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>352</v>
       </c>
       <c r="B369" t="s">
         <v>291</v>
       </c>
       <c r="C369">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E369" s="27" t="s">
-        <v>95</v>
+        <v>77</v>
+      </c>
+      <c r="E369" s="24" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>353</v>
       </c>
       <c r="B370" t="s">
         <v>291</v>
       </c>
       <c r="C370">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E370" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
+      </c>
+      <c r="E370" s="25" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="371" spans="1:5">
       <c r="A371">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>354</v>
       </c>
       <c r="B371" t="s">
         <v>291</v>
       </c>
       <c r="C371">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="372" spans="1:5">
       <c r="A372">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>355</v>
       </c>
       <c r="B372" t="s">
         <v>291</v>
       </c>
       <c r="C372">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E372" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
+      </c>
+      <c r="E372" s="26" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="373" spans="1:5">
       <c r="A373">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>356</v>
       </c>
       <c r="B373" t="s">
         <v>291</v>
       </c>
       <c r="C373">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E373" s="1" t="s">
-        <v>299</v>
+        <v>94</v>
+      </c>
+      <c r="E373" s="27" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="374" spans="1:5">
       <c r="A374">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>357</v>
       </c>
       <c r="B374" t="s">
         <v>291</v>
       </c>
       <c r="C374">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>358</v>
       </c>
       <c r="B375" t="s">
         <v>291</v>
       </c>
       <c r="C375">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>359</v>
       </c>
       <c r="B376" t="s">
         <v>291</v>
       </c>
       <c r="C376">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>173</v>
+        <v>298</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>173</v>
+        <v>298</v>
       </c>
     </row>
     <row r="377" spans="1:5">
       <c r="A377">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>360</v>
       </c>
       <c r="B377" t="s">
         <v>291</v>
       </c>
       <c r="C377">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>186</v>
+        <v>299</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>186</v>
+        <v>299</v>
       </c>
     </row>
     <row r="378" spans="1:5">
       <c r="A378">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>361</v>
       </c>
       <c r="B378" t="s">
         <v>291</v>
       </c>
       <c r="C378">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>192</v>
+        <v>67</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>192</v>
+        <v>67</v>
       </c>
     </row>
     <row r="379" spans="1:5">
       <c r="A379">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>362</v>
       </c>
       <c r="B379" t="s">
         <v>291</v>
       </c>
       <c r="C379">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>197</v>
+        <v>300</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>197</v>
+        <v>300</v>
       </c>
     </row>
     <row r="380" spans="1:5">
       <c r="A380">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>363</v>
       </c>
       <c r="B380" t="s">
         <v>291</v>
       </c>
       <c r="C380">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
     </row>
     <row r="381" spans="1:5">
       <c r="A381">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>364</v>
       </c>
       <c r="B381" t="s">
         <v>291</v>
       </c>
       <c r="C381">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="382" spans="1:5">
       <c r="A382">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>365</v>
       </c>
       <c r="B382" t="s">
         <v>291</v>
       </c>
       <c r="C382">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="383" spans="1:5">
       <c r="A383">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>366</v>
       </c>
       <c r="B383" t="s">
         <v>291</v>
       </c>
       <c r="C383">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="384" spans="1:5">
       <c r="A384">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>367</v>
       </c>
       <c r="B384" t="s">
         <v>291</v>
       </c>
       <c r="C384">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="385" spans="1:5">
       <c r="A385">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>368</v>
       </c>
       <c r="B385" t="s">
         <v>291</v>
       </c>
       <c r="C385">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
     </row>
     <row r="386" spans="1:5">
       <c r="A386">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>369</v>
       </c>
       <c r="B386" t="s">
         <v>291</v>
       </c>
       <c r="C386">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
     </row>
     <row r="387" spans="1:5">
       <c r="A387">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>370</v>
       </c>
       <c r="B387" t="s">
         <v>291</v>
       </c>
       <c r="C387">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="388" spans="1:5">
       <c r="A388">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>371</v>
       </c>
       <c r="B388" t="s">
         <v>291</v>
       </c>
       <c r="C388">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="389" spans="1:5">
       <c r="A389">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>372</v>
       </c>
       <c r="B389" t="s">
         <v>291</v>
       </c>
       <c r="C389">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
     </row>
     <row r="390" spans="1:5">
       <c r="A390">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>373</v>
       </c>
       <c r="B390" t="s">
         <v>291</v>
       </c>
       <c r="C390">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
     </row>
     <row r="391" spans="1:5">
       <c r="A391">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>374</v>
       </c>
       <c r="B391" t="s">
         <v>291</v>
       </c>
       <c r="C391">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="392" spans="1:5">
       <c r="A392">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>375</v>
       </c>
       <c r="B392" t="s">
         <v>291</v>
       </c>
       <c r="C392">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="393" spans="1:5">
       <c r="A393">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>376</v>
       </c>
       <c r="B393" t="s">
         <v>291</v>
       </c>
       <c r="C393">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>228</v>
+        <v>84</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>228</v>
+        <v>84</v>
       </c>
     </row>
     <row r="394" spans="1:5">
       <c r="A394">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>377</v>
       </c>
       <c r="B394" t="s">
         <v>291</v>
       </c>
       <c r="C394">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="395" spans="1:5">
       <c r="A395">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>378</v>
       </c>
       <c r="B395" t="s">
         <v>291</v>
       </c>
       <c r="C395">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="396" spans="1:5">
       <c r="A396">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>379</v>
       </c>
       <c r="B396" t="s">
         <v>291</v>
       </c>
       <c r="C396">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="397" spans="1:5">
       <c r="A397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>380</v>
       </c>
       <c r="B397" t="s">
         <v>291</v>
       </c>
       <c r="C397">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>84</v>
+        <v>228</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>84</v>
+        <v>228</v>
       </c>
     </row>
     <row r="398" spans="1:5">
       <c r="A398">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>381</v>
       </c>
       <c r="B398" t="s">
         <v>291</v>
       </c>
       <c r="C398">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" ht="33">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
       <c r="A399">
-        <f t="shared" ref="A399:A430" si="8">A398+1</f>
+        <f t="shared" si="6"/>
         <v>382</v>
       </c>
       <c r="B399" t="s">
         <v>291</v>
       </c>
       <c r="C399">
+        <v>228</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400">
+        <f t="shared" si="6"/>
+        <v>383</v>
+      </c>
+      <c r="B400" t="s">
+        <v>291</v>
+      </c>
+      <c r="C400">
+        <v>229</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401">
+        <f t="shared" si="6"/>
+        <v>384</v>
+      </c>
+      <c r="B401" t="s">
+        <v>291</v>
+      </c>
+      <c r="C401">
+        <v>230</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402">
+        <f t="shared" si="6"/>
+        <v>385</v>
+      </c>
+      <c r="B402" t="s">
+        <v>291</v>
+      </c>
+      <c r="C402">
+        <v>234</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" ht="33">
+      <c r="A403">
+        <f t="shared" si="6"/>
+        <v>386</v>
+      </c>
+      <c r="B403" t="s">
+        <v>291</v>
+      </c>
+      <c r="C403">
         <v>244</v>
       </c>
-      <c r="D399" s="1" t="s">
+      <c r="D403" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E399" s="1" t="s">
+      <c r="E403" s="1" t="s">
         <v>301</v>
       </c>
     </row>
